--- a/data/RawSpreadsheet.xlsx
+++ b/data/RawSpreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="343">
   <si>
     <t>Area</t>
   </si>
@@ -430,9 +430,6 @@
     <t>MATH 3310</t>
   </si>
   <si>
-    <t>Discrete</t>
-  </si>
-  <si>
     <t>PHYS</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
     <t>PHYS 2215</t>
   </si>
   <si>
-    <t>Physics Lab</t>
-  </si>
-  <si>
     <t>PHYS 2220</t>
   </si>
   <si>
@@ -590,9 +584,6 @@
   </si>
   <si>
     <t>Students will demonstrate their ability to solve concurrency issues.</t>
-  </si>
-  <si>
-    <t>Students will exercise API's for distributed application development.</t>
   </si>
   <si>
     <t>SE 3630</t>
@@ -795,9 +786,6 @@
     <t>MATH 1050</t>
   </si>
   <si>
-    <t>Students will understand and be able to work with the number systems around which digital computer hardware is designed, including conversion between number systems, two's complement binary numbers, and binary arithmetic.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Students will be able to use Boolean algebra as a tool in the design of digital circuits which are to perform a given logic function, and to use Kamaugh maps to find the minimal realization of such circuits.  </t>
   </si>
   <si>
@@ -812,116 +800,326 @@
 • Vulnerability &amp; risk mitigation, vulnerability assessments, &amp; QA testing.</t>
   </si>
   <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>col name</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>IGNORE</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>CoursePreReq</t>
+  </si>
+  <si>
+    <t>….</t>
+  </si>
+  <si>
+    <t>LearningOutcome</t>
+  </si>
+  <si>
+    <t>(SKILL)</t>
+  </si>
+  <si>
+    <t>(ID,Name)</t>
+  </si>
+  <si>
+    <t>(ID,Name,[]Skills, []Post/Pre outcomes)</t>
+  </si>
+  <si>
+    <t>Programming Fundamentals Lab</t>
+  </si>
+  <si>
+    <t>This laboratory provides the hands-on experience necessary to begin to develop correct programming practices. It introduces the student to an integrated development environment. It provides the opportunity to apply software fundamentals in an appropriate programming language.</t>
+  </si>
+  <si>
+    <t>Public Speaking</t>
+  </si>
+  <si>
+    <t>This is a practical and general course designed for students who desire to improve their speech efficiency, poise and self-confidence in public address situations. Special emphasis is placed on preparing, selecting, researching, organizing and delivering oral messages as well as on analyzing and evaluating the speaking-listening process.</t>
+  </si>
+  <si>
+    <t>Yr0-PreReq</t>
+  </si>
+  <si>
+    <t>Object-Oriented Programming Lab</t>
+  </si>
+  <si>
+    <t>This laboratory provides continued experience to develop in depth correct programming practices. It provides the opportunity to apply object-oriented programming concepts and data structures.</t>
+  </si>
+  <si>
+    <t>Expository Composition</t>
+  </si>
+  <si>
+    <t>This course emphasizes critical reading, writing, and thinking skills through writing-intensive workshops. It explores writing situations as a complex process focusing specifically on idea generation relative to audience and purpose, working through multiple drafts, peer collaboration, and revision, and it includes rhetorical analysis. See prerequisites.</t>
+  </si>
+  <si>
+    <t>Intermediate Research Writing</t>
+  </si>
+  <si>
+    <t>This course focuses on professional, scientific, governmental, and technical discourse, including memos, letters, process descriptions, instructions, reports, and others in both print and digital media. Students will develop skills in audience awareness and rhetorical analysis, clarity and precision of expression, and document/visual design.</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>MATH 1050, MATH 1060, MATH 1080</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>nonProgramPreReq</t>
+  </si>
+  <si>
+    <t>Calculus II</t>
+  </si>
+  <si>
+    <t>This course is a continuation of the study of calculus. Topics include techniques of integration and applications, numeric integration techniques, calculus in conic sections and polar coordinates, infinite sequences and series (tests for convergence), and introduction to vectors.</t>
+  </si>
+  <si>
+    <t>Linear algebra is a study of systems of linear equations, matrices, vectors and vector spaces, linear transformations, eigenvalues and eigenvectors, and inner product spaces. This class is required for students majoring in mathematics and many areas of science and engineering.</t>
+  </si>
+  <si>
+    <t>This is a first course in statistics for STEM majors. Topics will include probability, discrete and continuous distributions, descriptive statistics, and statistical inference (confidence intervals and hypothesis testing, including linear regression and one-way ANOVA). Proficiency with integral calculus is required.</t>
+  </si>
+  <si>
+    <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course in discrete mathematics covers Boolean algebra, sets and relations, functions, induction, recursion, enumerative combinatorics, elements of number theory, complexity of algorithms, trees, and graph theory. </t>
+  </si>
+  <si>
+    <t>Physics for Scientists and Engineers I Laboratory</t>
+  </si>
+  <si>
+    <t>PHYS 2215 is the laboratory experience to accompany PHYS 2210. Students will learn techniques of measurement and data analysis and to communicate scientific results effectively in writing. Principles from the lecture section will be illustrated.</t>
+  </si>
+  <si>
+    <t> PHYS 2220 is the second semester of a two-semester sequence in calculus-based physics for scientists and engineers. It is a necessary preparation for continuing studies in upper division courses. It includes an introduction to electricity, magnetism, circuits, optics, and relativity. The methods of calculus are applied to develop theories and to solve problems.</t>
+  </si>
+  <si>
+    <t>Physics for Scientists and Engineers II Laboratory</t>
+  </si>
+  <si>
+    <t>PHYS 2225 is the laboratory experience to accompany PHYS 2220. Students will learn techniques of measurement and data analysis and to communicate scientific results effectively in writing. Students will get hands-on experience with the concepts taught in the lecture section.</t>
+  </si>
+  <si>
+    <t>Software Engineering Practicum II</t>
+  </si>
+  <si>
+    <t>Students will build on the skills learned in ENGL 1010 in this intermediate writing course designed to improve students reading, writing, research, and critical thinking skills. The course may include expository, persuasive, and/or argumentative writing emphases. The course will require several research oriented writing assignments. Students must achieve a C- or higher in this course to receive GE credit.</t>
+  </si>
+  <si>
+    <t>Students will exercise APIs for distributed application development.</t>
+  </si>
+  <si>
     <t>This course will cover the following modules:
 GUI Design and usability: Basic UI/UX considerations including: Discoverability, Error prevention, visibility, efficiency, perception, and navigation.
 Interaction between front and backend code: Common methods allowing interaction between GUI elements and the backend code of an application. These will include events, bindings, and MVC patterns.
 Layout Tools: Tools and patterns for laying out UI elements on the screen, including grids, canvas, panels, and wrapper elements.
 Input: Buttons, forms, mouse events, keyboard events, drag and drop events, and use of the clipboard.
 Styles and Themes: Reusable components for adjusting the visual aspects of the interface.
-Resources and localization: Methods for creating international applications including localization (currency's, date formats, etc.) and languages.</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>col name</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>IGNORE</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>CoursePreReq</t>
-  </si>
-  <si>
-    <t>….</t>
-  </si>
-  <si>
-    <t>LearningOutcome</t>
-  </si>
-  <si>
-    <t>(SKILL)</t>
-  </si>
-  <si>
-    <t>(ID,Name)</t>
-  </si>
-  <si>
-    <t>(ID,Name,[]Skills, []Post/Pre outcomes)</t>
-  </si>
-  <si>
-    <t>insert into course (prefix,num,title,summary,semester) values ('COMM',1020,'Communications (?)','*SUMMARY*','Yr4 - Spring');</t>
-  </si>
-  <si>
-    <t>Programming Fundamentals Lab</t>
-  </si>
-  <si>
-    <t>This laboratory provides the hands-on experience necessary to begin to develop correct programming practices. It introduces the student to an integrated development environment. It provides the opportunity to apply software fundamentals in an appropriate programming language.</t>
-  </si>
-  <si>
-    <t>Public Speaking</t>
-  </si>
-  <si>
-    <t>This is a practical and general course designed for students who desire to improve their speech efficiency, poise and self-confidence in public address situations. Special emphasis is placed on preparing, selecting, researching, organizing and delivering oral messages as well as on analyzing and evaluating the speaking-listening process.</t>
-  </si>
-  <si>
-    <t>Yr0-PreReq</t>
-  </si>
-  <si>
-    <t>Object-Oriented Programming Lab</t>
-  </si>
-  <si>
-    <t>This laboratory provides continued experience to develop in depth correct programming practices. It provides the opportunity to apply object-oriented programming concepts and data structures.</t>
-  </si>
-  <si>
-    <t>Expository Composition</t>
-  </si>
-  <si>
-    <t>This course emphasizes critical reading, writing, and thinking skills through writing-intensive workshops. It explores writing situations as a complex process focusing specifically on idea generation relative to audience and purpose, working through multiple drafts, peer collaboration, and revision, and it includes rhetorical analysis. See prerequisites.</t>
-  </si>
-  <si>
-    <t>Intermediate Research Writing</t>
-  </si>
-  <si>
-    <t>Students will build on the skills learned in ENGL 1010 in this intermediate writing course designed to improve students' reading, writing, research, and critical thinking skills. The course may include expository, persuasive, and/or argumentative writing emphases. The course will require several research oriented writing assignments. Students must achieve a C- or higher in this course to receive GE credit.</t>
-  </si>
-  <si>
-    <t>This course focuses on professional, scientific, governmental, and technical discourse, including memos, letters, process descriptions, instructions, reports, and others in both print and digital media. Students will develop skills in audience awareness and rhetorical analysis, clarity and precision of expression, and document/visual design.</t>
-  </si>
-  <si>
-    <t>Calculus I</t>
-  </si>
-  <si>
-    <t>MATH 1050, MATH 1060, MATH 1080</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>nonProgramPreReq</t>
+Resources and localization: Methods for creating international applications including localization (currencies, date formats, etc.) and languages.</t>
+  </si>
+  <si>
+    <t>Students will understand and be able to work with the number systems around which digital computer hardware is designed, including conversion between number systems, two complement binary numbers, and binary arithmetic.</t>
+  </si>
+  <si>
+    <t>PHYS 2210 is the first semester of a two-semester sequence in calculus-based physics for scientists and engineers. A It is a necessary preparation for continuing studies in upper division STEM courses. A It includes an introduction to Newtons laws of motion, momentum and energy conservation, rotations, oscillations, waves, and gravitation. A The methods of calculus are applied to develop theories and to solve problems.</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2700,'Digital Circuits','This course is an introduction to digital systems, logic gates, combinational logic circuits, and sequential logic circuits.  It includes minimization techniques and implementation with encoders, decoders, multiplexers, and programmable logic devices.  It considers Mealy and Moore models of state machines, state minimization, and state assignment.  It also introduces a hardware description language.  This course is cross listed as ENGR 2700.','Yr1 - Spring','MATH 1050');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('COMM',1020,'Public Speaking','This is a practical and general course designed for students who desire to improve their speech efficiency, poise and self-confidence in public address situations. Special emphasis is placed on preparing, selecting, researching, organizing and delivering oral messages as well as on analyzing and evaluating the speaking-listening process.','Yr4 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1400,'Programming Fundamentals','The following topics will be covered in this course: Introduction to computers and programming; Data representation; Control structures; Functions; Arrays; Social context of computing.','Yr0-PreReq','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1405,'Programming Fundamentals Lab','This laboratory provides the hands-on experience necessary to begin to develop correct programming practices. It introduces the student to an integrated development environment. It provides the opportunity to apply software fundamentals in an appropriate programming language.','Yr0-PreReq','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1410,'Object-Oriented Programming','The following topics will be covered in this course: Encapsulation; Inheritance; Polymorphism; Exception handling. Basic data structures; Recursion; The software development process','Yr1 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1415,'Object-Oriented Programming Lab','This laboratory provides continued experience to develop in depth correct programming practices. It provides the opportunity to apply object-oriented programming concepts and data structures.','Yr1 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1810,'Web Development I','The course provides a technical overview of the Internet environment and the structure of the World Wide Web. The technical segment will focus on the design and implementation of an effective web site at the introductory level.','Yr3 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1820,'Web Development II','CS 1820 introduces the principles of back end web development. The backend of a web application is an enabler for a front end experience. Backend developers need to understand programming languages and database and they must have an understanding of server architecture.','Yr3 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2420,'Data Structures and Algorithms','The following topics will be covered in this course: Data abstration; Linked lists; Stacks and queues; Trees; Tables; Graphs; Recursion; Complexity analysis; Sorting and searching','Yr1 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2450,'Intro to Software Engineering','The following topics will be covered in this course: Software life cycle models; Software project management; Team development environments and methodologies; Requirements engineering; Software design and architectures; Quality assurance and standards; Legal and ethical issues; Working as an effective member of a software development team','Yr2 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2810,'Computer Organization and Architecture','The following topics will be covered in this course: Role of performance; Instruction sets and types; Assembly/machine language; Arithmetic; Datapath and control; Pipelining; Memory management; Interfacing and communication.','Yr2 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2830,'Web Development III','The following topics will be covered in this course: - Introduction to Cloud Computing - Methods of Leveraging Cloud Computing - Cloud Economics and Total Cost of Ownership - AWS Infrastructure - AWS Compute, Storage, and Networking - AWS Security, Identity and Access Management - AWS Database Options - AWS Elasticity and Management Tools - Architecting on AWS and System Design - Methods of Designing Your Environment - System Design for High Availability - Automation and Serverless Architecture - Event-Driven Scaling','Yr4 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2860,'Operating Systems','This course will cover the following topics: Operating systems history and architecture; Processes and Threads; Synchronization (mostly deadlock prevention); Memory Management; Input/Output; File Systems; Multimedia','Yr2 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('ENGL',1010,'Expository Composition','This course emphasizes critical reading, writing, and thinking skills through writing-intensive workshops. It explores writing situations as a complex process focusing specifically on idea generation relative to audience and purpose, working through multiple drafts, peer collaboration, and revision, and it includes rhetorical analysis. See prerequisites.','Yr1 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('ENGL',2010,'Intermediate Research Writing','Students will build on the skills learned in ENGL 1010 in this intermediate writing course designed to improve students reading, writing, research, and critical thinking skills. The course may include expository, persuasive, and/or argumentative writing emphases. The course will require several research oriented writing assignments. Students must achieve a C- or higher in this course to receive GE credit.','Yr1 - Spring','ENGL 1010');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('ENGL',3260,'Technical Communications','This course focuses on professional, scientific, governmental, and technical discourse, including memos, letters, process descriptions, instructions, reports, and others in both print and digital media. Students will develop skills in audience awareness and rhetorical analysis, clarity and precision of expression, and document/visual design.','Yr3 - Spring','ENGL 2010');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',1,'Life Science','','','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',2,'American Institutions','','Yr1 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',3,'FA/HU/SS','','Yr2 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',4,'FA/HU/SS','','Yr2 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',5,'FA/HU/SS','','Yr3 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MAT/SCI',1,'Elective','','Yr2 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',1210,'Calculus I','','Yr1 - Fall','MATH 1050, MATH 1060, MATH 1080');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',1220,'Calculus II','This course is a continuation of the study of calculus. Topics include techniques of integration and applications, numeric integration techniques, calculus in conic sections and polar coordinates, infinite sequences and series (tests for convergence), and introduction to vectors.','Yr1 - Spring','MATH 1210');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',2270,'Linear Algebra','Linear algebra is a study of systems of linear equations, matrices, vectors and vector spaces, linear transformations, eigenvalues and eigenvectors, and inner product spaces. This class is required for students majoring in mathematics and many areas of science and engineering.','Yr2 - Fall','MATH 1210');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',3040,'Stats for Science &amp; Engineers','This is a first course in statistics for STEM majors. Topics will include probability, discrete and continuous distributions, descriptive statistics, and statistical inference (confidence intervals and hypothesis testing, including linear regression and one-way ANOVA). Proficiency with integral calculus is required.','Yr3 - Fall','MATH 1210');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',3310,'Discrete Mathematics','This course in discrete mathematics covers Boolean algebra, sets and relations, functions, induction, recursion, enumerative combinatorics, elements of number theory, complexity of algorithms, trees, and graph theory. ','Yr2 - Fall','MATH 1210');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2210,'Physics for Science &amp; Engineers I','PHYS 2210 is the first semester of a two-semester sequence in calculus-based physics for scientists and engineers. A It is a necessary preparation for continuing studies in upper division STEM courses. A It includes an introduction to Newtons laws of motion, momentum and energy conservation, rotations, oscillations, waves, and gravitation. A The methods of calculus are applied to develop theories and to solve problems.','Yr2 - Fall','MATH 1220');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2215,'Physics for Scientists and Engineers I Laboratory','PHYS 2215 is the laboratory experience to accompany PHYS 2210. Students will learn techniques of measurement and data analysis and to communicate scientific results effectively in writing. Principles from the lecture section will be illustrated.','Yr2 - Fall','MATH 1220');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2220,'Physics for Science &amp; Engineers II',' PHYS 2220 is the second semester of a two-semester sequence in calculus-based physics for scientists and engineers. It is a necessary preparation for continuing studies in upper division courses. It includes an introduction to electricity, magnetism, circuits, optics, and relativity. The methods of calculus are applied to develop theories and to solve problems.','Yr2 - Spring','PHYS 2210');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2225,'Physics for Scientists and Engineers II Laboratory','PHYS 2225 is the laboratory experience to accompany PHYS 2220. Students will learn techniques of measurement and data analysis and to communicate scientific results effectively in writing. Students will get hands-on experience with the concepts taught in the lecture section.','Yr2 - Spring','PHYS 2210');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3250,'Survey of Languages','This course will be divided into modules each covering a family of programming languages. In each module, the students will be introduced to a family of languages. We will discuss the use cases and thought patterns that the languages address. Additionally, for each module the students will be expected to learn to develop and debug in a representative language from the family being studied and complete a project using it. This course will cover the following modules: Functional Programming Haskell Interpreted Languages / Scripting Python Declarative Languages Prolog Big data Hadoop/Pig Latin Microsoft .Net C# In addition to the above modules the students will be expected to complete a final project and presentation which will consist of learning a language of their choice, completing a project in that language, and giving a short presentation to the class.','Yr3 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3410,'Human Factors in Software Design','SE 3410 introduces the principles of user interface development, focusing on the following areas: • Design: We will look at how to design good user interfaces, covering important design principles (learnability, visibility, error prevention, efficiency, and graphic design) and the human capabilities that motivate them (including perception, motor skills, color vision, attention, and human error). • Implementation: We will see techniques for building user interfaces, including lowfidelity prototypes, Wizard of Oz, and other prototyping tools; input models, output models, model-view-controller, layout, constraints, and toolkits. • Evaluation: We will learn techniques for evaluating and measuring interface usability, including heuristic evaluation, predictive evaluation, and user testing. • Research: We will learn how to conduct empirical research involving novel user interfaces.','Yr3 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3450,'Principles and Patterns of Software Design','The discipline of Software Engineering Design will be presented by covering the following topics: • Software Design processes • Software product design • Product design analysis • Software Engineering Design • Engineering Design • Architectural Design • Object Oriented Design • State Based Design • Patterns in Software Design','Yr3 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3520,'Database Systems','The following topics will be covered in this course: • Foundations • Design Theory and Constraints • Transactions • Introduction to Database Systems • Specialized and New Data Processing Systems','Yr3 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3620,'Distributed Application Development','Learn and experiment with Amazon Web Services (AWS): • console management • host a static website • build a web application • deploy a web application Understand distributed system components: • distributed system characteristics • system models • networking / internetworking • IPC / RPC • distributed objects • web services • peer to peer • security • distributed file systems • name services • time • transactions and concurrency control • replication','Yr3 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3630,'Mobile Application Development','The following topics will be covered in this course: • Android App Development Tools • Creating and Debugging User Interfaces • User Interace Layouts • Activities and Navigation • Listviews • Input Controls • Multimedia: Android Media Player / Movies and Music • Geolocation: Mapping and location-based services • App Publishing / Content providers • Testing Strategies for Mobile Applications','Yr3 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4120,'Management of Software Projects','This course covers the following topics: * Life cycle models * Requirements elicitation * Configuration control * Environments * Quality assurance','Yr4 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4140,'Social and Ethical Issues in Computing','This course will cover the following modules:
+- History of the rapid rise in computer and networking technology.
+- Ethics including an introduction to the philosophical bases.
+- Networking and the Internet including Freedom of expression, Censorship, Spam, and
+internet addiction.
+- Intellectual Property including copyright, fair use, patents, open-source, and licencing.
+- Privacy including the ownership of information, government surveillance, data mining
+and identify theft.
+- Computer and Network Security including Viruses, Hackers, and Denial-of-service
+attacks.
+- Computer Reliability including the cost and responsibility of errors, software
+warranties, and simulations.
+- Professional Ethics including ACM and IEEE codes of conduct.','Yr4 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4220,'Graphical User Interfaces','This course will cover the following modules:
+GUI Design and usability: Basic UI/UX considerations including: Discoverability, Error prevention, visibility, efficiency, perception, and navigation.
+Interaction between front and backend code: Common methods allowing interaction between GUI elements and the backend code of an application. These will include events, bindings, and MVC patterns.
+Layout Tools: Tools and patterns for laying out UI elements on the screen, including grids, canvas, panels, and wrapper elements.
+Input: Buttons, forms, mouse events, keyboard events, drag and drop events, and use of the clipboard.
+Styles and Themes: Reusable components for adjusting the visual aspects of the interface.
+Resources and localization: Methods for creating international applications including localization (currencies, date formats, etc.) and languages.','Yr4 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4230,'Advanced Algorithms','Algorithmic techniques will include divide-and-conquer, dynamic programming, greedy approaches, and graph algorithms as well as a selection of current algorithm topics of interest (e.g. learning algorithms). Analysis techniques will include the Master theorem, big-O/theta notation, and proofs by construction, contradiction and induction. Students will also practice implementing algorithms.','Yr4 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4320,'Personal Software Practices','The course will cover the following topics:
+- The value of following defined processes.
+- Data collection and analysis for continuous improvement of the software development
+life cycle.
+- Estimation and planning techniques of software projects.
+- Quality management and design principles.','Yr4 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4340,'Secure Coding Practices','This course will cover the following modules:
+• Web Application Security &amp; Practices including SQL injection, cross-site scripting, cross-site request forgery, cookies and hidden form fields.
+• Implementation Security &amp; Practices including buffer overruns, string formatting issues, integer overflows, exceptions, command injection, information leakage, race conditions, principle of least privilege.
+• Cryptographic Security &amp; Practices including weak passwords, weak cryptography, incorrect cryptography.
+• Networking Security &amp; Practices including network security overview, secure network transmission, name resolution.
+• Vulnerability &amp; risk mitigation, vulnerability assessments, &amp; QA testing.','Yr4 - Spring','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4400,'Software Engineering Practicum I','This course will consist of a practical software engineering capstone experience. Content covered through the experience will be dependent upon the project assigned to each student. It is expected that each experience will be unique as provided for by a professional sponsor or assigned by the instructor. However, key principles taught throughout the Software Engineering curriculum will be applied to each setting.','Yr4 - Fall','');</t>
+  </si>
+  <si>
+    <t>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4450,'Software Engineering Practicum II','This course will consist of a practical software engineering capstone experience. Content covered through the experience will be dependent upon the project assigned to each student. It is expected that each experience will be unique as provided for by a professional sponsor or assigned by the instructor. However, key principles taught throughout the Software Engineering curriculum will be applied to each setting.','Yr4 - Spring','');</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -950,15 +1148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,8 +1174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:U47" totalsRowShown="0">
-  <autoFilter ref="B3:U47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:U48" totalsRowShown="0">
+  <autoFilter ref="B3:U48"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Area"/>
     <tableColumn id="2" name="Number"/>
@@ -1302,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1324,69 +1521,69 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
         <v>258</v>
       </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" t="s">
-        <v>263</v>
-      </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="K2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1409,7 +1606,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -1453,8 +1650,8 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="str">
-        <f>CONCATENATE("insert into course (prefix,num,title,summary,semester) values ('",B4,"',",C4,",'",E4,"','",F4,"','",G4,"');")</f>
-        <v>insert into course (prefix,num,title,summary,semester) values ('COMM',1020,'Public Speaking','This is a practical and general course designed for students who desire to improve their speech efficiency, poise and self-confidence in public address situations. Special emphasis is placed on preparing, selecting, researching, organizing and delivering oral messages as well as on analyzing and evaluating the speaking-listening process.','Yr4 - Spring');</v>
+        <f t="shared" ref="A4:A12" si="0">CONCATENATE("insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('",B4,"',",C4,",'",E4,"','",F4,"','",G4,"','",H4,"');")</f>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('COMM',1020,'Public Speaking','This is a practical and general course designed for students who desire to improve their speech efficiency, poise and self-confidence in public address situations. Special emphasis is placed on preparing, selecting, researching, organizing and delivering oral messages as well as on analyzing and evaluating the speaking-listening process.','Yr4 - Spring','');</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -1466,10 +1663,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1480,8 +1677,8 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A6" si="0">CONCATENATE("insert into course (prefix,num,title,summary,semester) values ('",B5,"',",C5,",'",E5,"','",F5,"','",G5,"');")</f>
-        <v>insert into course (prefix,num,title,summary,semester) values ('CS',1400,'Programming Fundamentals','The following topics will be covered in this course: Introduction to computers and programming; Data representation; Control structures; Functions; Arrays; Social context of computing.','Yr0-PreReq');</v>
+        <f t="shared" si="0"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1400,'Programming Fundamentals','The following topics will be covered in this course: Introduction to computers and programming; Data representation; Control structures; Functions; Arrays; Social context of computing.','Yr0-PreReq','');</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1499,7 +1696,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
@@ -1517,7 +1714,7 @@
     <row r="6" spans="1:21" ht="15.75">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into course (prefix,num,title,summary,semester) values ('CS',1405,'Programming Fundamentals Lab','This laboratory provides the hands-on experience necessary to begin to develop correct programming practices. It introduces the student to an integrated development environment. It provides the opportunity to apply software fundamentals in an appropriate programming language.','Yr0-PreReq');</v>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1405,'Programming Fundamentals Lab','This laboratory provides the hands-on experience necessary to begin to develop correct programming practices. It introduces the student to an integrated development environment. It provides the opportunity to apply software fundamentals in an appropriate programming language.','Yr0-PreReq','');</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -1529,19 +1726,23 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:21">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1410,'Object-Oriented Programming','The following topics will be covered in this course: Encapsulation; Inheritance; Polymorphism; Exception handling. Basic data structures; Recursion; The software development process','Yr1 - Fall','');</v>
+      </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1571,6 +1772,10 @@
       </c>
     </row>
     <row r="8" spans="1:21">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1415,'Object-Oriented Programming Lab','This laboratory provides continued experience to develop in depth correct programming practices. It provides the opportunity to apply object-oriented programming concepts and data structures.','Yr1 - Fall','');</v>
+      </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1581,10 +1786,10 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -1594,6 +1799,10 @@
       </c>
     </row>
     <row r="9" spans="1:21">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1810,'Web Development I','The course provides a technical overview of the Internet environment and the structure of the World Wide Web. The technical segment will focus on the design and implementation of an effective web site at the introductory level.','Yr3 - Fall','');</v>
+      </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1653,6 +1862,10 @@
       </c>
     </row>
     <row r="10" spans="1:21">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',1820,'Web Development II','CS 1820 introduces the principles of back end web development. The backend of a web application is an enabler for a front end experience. Backend developers need to understand programming languages and database and they must have an understanding of server architecture.','Yr3 - Spring','');</v>
+      </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -1700,6 +1913,10 @@
       </c>
     </row>
     <row r="11" spans="1:21">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2420,'Data Structures and Algorithms','The following topics will be covered in this course: Data abstration; Linked lists; Stacks and queues; Trees; Tables; Graphs; Recursion; Complexity analysis; Sorting and searching','Yr1 - Spring','');</v>
+      </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1735,6 +1952,10 @@
       </c>
     </row>
     <row r="12" spans="1:21">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2450,'Intro to Software Engineering','The following topics will be covered in this course: Software life cycle models; Software project management; Team development environments and methodologies; Requirements engineering; Software design and architectures; Quality assurance and standards; Legal and ethical issues; Working as an effective member of a software development team','Yr2 - Spring','');</v>
+      </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1782,6 +2003,10 @@
       </c>
     </row>
     <row r="13" spans="1:21">
+      <c r="A13" t="str">
+        <f>CONCATENATE("insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('",B13,"',",C13,",'",E13,"','",F13,"','",G13,"','",H13,"');")</f>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2700,'Digital Circuits','This course is an introduction to digital systems, logic gates, combinational logic circuits, and sequential logic circuits.  It includes minimization techniques and implementation with encoders, decoders, multiplexers, and programmable logic devices.  It considers Mealy and Moore models of state machines, state minimization, and state assignment.  It also introduces a hardware description language.  This course is cross listed as ENGR 2700.','Yr1 - Spring','MATH 1050');</v>
+      </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1792,28 +2017,32 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G13" t="s">
         <v>69</v>
       </c>
-      <c r="I13" t="s">
-        <v>251</v>
-      </c>
-      <c r="J13" t="s">
-        <v>252</v>
+      <c r="H13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>296</v>
       </c>
       <c r="K13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:21">
+      <c r="A14" t="str">
+        <f t="shared" ref="A14:A48" si="1">CONCATENATE("insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('",B14,"',",C14,",'",E14,"','",F14,"','",G14,"','",H14,"');")</f>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2810,'Computer Organization and Architecture','The following topics will be covered in this course: Role of performance; Instruction sets and types; Assembly/machine language; Arithmetic; Datapath and control; Pipelining; Memory management; Interfacing and communication.','Yr2 - Fall','');</v>
+      </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1843,6 +2072,10 @@
       </c>
     </row>
     <row r="15" spans="1:21">
+      <c r="A15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2830,'Web Development III','The following topics will be covered in this course: - Introduction to Cloud Computing - Methods of Leveraging Cloud Computing - Cloud Economics and Total Cost of Ownership - AWS Infrastructure - AWS Compute, Storage, and Networking - AWS Security, Identity and Access Management - AWS Database Options - AWS Elasticity and Management Tools - Architecting on AWS and System Design - Methods of Designing Your Environment - System Design for High Availability - Automation and Serverless Architecture - Event-Driven Scaling','Yr4 - Fall','');</v>
+      </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -1881,6 +2114,10 @@
       </c>
     </row>
     <row r="16" spans="1:21">
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('CS',2860,'Operating Systems','This course will cover the following topics: Operating systems history and architecture; Processes and Threads; Synchronization (mostly deadlock prevention); Memory Management; Input/Output; File Systems; Multimedia','Yr2 - Spring','');</v>
+      </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -1927,7 +2164,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="1:9">
+      <c r="A17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('ENGL',1010,'Expository Composition','This course emphasizes critical reading, writing, and thinking skills through writing-intensive workshops. It explores writing situations as a complex process focusing specifically on idea generation relative to audience and purpose, working through multiple drafts, peer collaboration, and revision, and it includes rhetorical analysis. See prerequisites.','Yr1 - Fall','');</v>
+      </c>
       <c r="B17" t="s">
         <v>111</v>
       </c>
@@ -1938,10 +2179,10 @@
         <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
@@ -1950,7 +2191,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="1:9">
+      <c r="A18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('ENGL',2010,'Intermediate Research Writing','Students will build on the skills learned in ENGL 1010 in this intermediate writing course designed to improve students reading, writing, research, and critical thinking skills. The course may include expository, persuasive, and/or argumentative writing emphases. The course will require several research oriented writing assignments. Students must achieve a C- or higher in this course to receive GE credit.','Yr1 - Spring','ENGL 1010');</v>
+      </c>
       <c r="B18" t="s">
         <v>111</v>
       </c>
@@ -1961,19 +2206,23 @@
         <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" t="s">
-        <v>282</v>
+        <v>275</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="G18" t="s">
         <v>69</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="1:9">
+      <c r="A19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('ENGL',3260,'Technical Communications','This course focuses on professional, scientific, governmental, and technical discourse, including memos, letters, process descriptions, instructions, reports, and others in both print and digital media. Students will develop skills in audience awareness and rhetorical analysis, clarity and precision of expression, and document/visual design.','Yr3 - Spring','ENGL 2010');</v>
+      </c>
       <c r="B19" t="s">
         <v>111</v>
       </c>
@@ -1987,16 +2236,20 @@
         <v>115</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="1:9">
+      <c r="A20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',1,'Life Science','','','');</v>
+      </c>
       <c r="B20" t="s">
         <v>116</v>
       </c>
@@ -2019,7 +2272,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="1:9">
+      <c r="A21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',2,'American Institutions','','Yr1 - Spring','');</v>
+      </c>
       <c r="B21" t="s">
         <v>116</v>
       </c>
@@ -2042,7 +2299,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="1:9">
+      <c r="A22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',3,'FA/HU/SS','','Yr2 - Fall','');</v>
+      </c>
       <c r="B22" t="s">
         <v>116</v>
       </c>
@@ -2065,7 +2326,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="1:9">
+      <c r="A23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',4,'FA/HU/SS','','Yr2 - Spring','');</v>
+      </c>
       <c r="B23" t="s">
         <v>116</v>
       </c>
@@ -2088,7 +2353,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="1:9">
+      <c r="A24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('GE',5,'FA/HU/SS','','Yr3 - Spring','');</v>
+      </c>
       <c r="B24" t="s">
         <v>116</v>
       </c>
@@ -2111,7 +2380,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="1:9">
+      <c r="A25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MAT/SCI',1,'Elective','','Yr2 - Spring','');</v>
+      </c>
       <c r="B25" t="s">
         <v>125</v>
       </c>
@@ -2134,7 +2407,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="1:9">
+      <c r="A26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',1210,'Calculus I','','Yr1 - Fall','MATH 1050, MATH 1060, MATH 1080');</v>
+      </c>
       <c r="B26" t="s">
         <v>128</v>
       </c>
@@ -2145,19 +2422,20 @@
         <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
-      <c r="I26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="H26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',1220,'Calculus II','This course is a continuation of the study of calculus. Topics include techniques of integration and applications, numeric integration techniques, calculus in conic sections and polar coordinates, infinite sequences and series (tests for convergence), and introduction to vectors.','Yr1 - Spring','MATH 1210');</v>
+      </c>
       <c r="B27" t="s">
         <v>128</v>
       </c>
@@ -2167,20 +2445,24 @@
       <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>21</v>
+      <c r="E27" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="G27" t="s">
         <v>69</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',2270,'Linear Algebra','Linear algebra is a study of systems of linear equations, matrices, vectors and vector spaces, linear transformations, eigenvalues and eigenvectors, and inner product spaces. This class is required for students majoring in mathematics and many areas of science and engineering.','Yr2 - Fall','MATH 1210');</v>
+      </c>
       <c r="B28" t="s">
         <v>128</v>
       </c>
@@ -2193,17 +2475,21 @@
       <c r="E28" t="s">
         <v>132</v>
       </c>
-      <c r="F28" t="s">
-        <v>21</v>
+      <c r="F28" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G28" t="s">
         <v>88</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',3040,'Stats for Science &amp; Engineers','This is a first course in statistics for STEM majors. Topics will include probability, discrete and continuous distributions, descriptive statistics, and statistical inference (confidence intervals and hypothesis testing, including linear regression and one-way ANOVA). Proficiency with integral calculus is required.','Yr3 - Fall','MATH 1210');</v>
+      </c>
       <c r="B29" t="s">
         <v>128</v>
       </c>
@@ -2216,17 +2502,21 @@
       <c r="E29" t="s">
         <v>134</v>
       </c>
-      <c r="F29" t="s">
-        <v>21</v>
+      <c r="F29" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="G29" t="s">
         <v>41</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="1:9">
+      <c r="A30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('MATH',3310,'Discrete Mathematics','This course in discrete mathematics covers Boolean algebra, sets and relations, functions, induction, recursion, enumerative combinatorics, elements of number theory, complexity of algorithms, trees, and graph theory. ','Yr2 - Fall','MATH 1210');</v>
+      </c>
       <c r="B30" t="s">
         <v>128</v>
       </c>
@@ -2236,126 +2526,155 @@
       <c r="D30" t="s">
         <v>135</v>
       </c>
-      <c r="E30" t="s">
-        <v>136</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
+      <c r="E30" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="G30" t="s">
         <v>88</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="A31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2210,'Physics for Science &amp; Engineers I','PHYS 2210 is the first semester of a two-semester sequence in calculus-based physics for scientists and engineers. A It is a necessary preparation for continuing studies in upper division STEM courses. A It includes an introduction to Newtons laws of motion, momentum and energy conservation, rotations, oscillations, waves, and gravitation. A The methods of calculus are applied to develop theories and to solve problems.','Yr2 - Fall','MATH 1220');</v>
+      </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31">
         <v>2210</v>
       </c>
       <c r="D31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
+      <c r="F31" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="G31" t="s">
         <v>88</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="I31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="A32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2215,'Physics for Scientists and Engineers I Laboratory','PHYS 2215 is the laboratory experience to accompany PHYS 2210. Students will learn techniques of measurement and data analysis and to communicate scientific results effectively in writing. Principles from the lecture section will be illustrated.','Yr2 - Fall','MATH 1220');</v>
+      </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32">
         <v>2215</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
+        <v>139</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="G32" t="s">
         <v>88</v>
       </c>
+      <c r="H32" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="I32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="1:19" ht="15.75">
+      <c r="A33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2220,'Physics for Science &amp; Engineers II',' PHYS 2220 is the second semester of a two-semester sequence in calculus-based physics for scientists and engineers. It is a necessary preparation for continuing studies in upper division courses. It includes an introduction to electricity, magnetism, circuits, optics, and relativity. The methods of calculus are applied to develop theories and to solve problems.','Yr2 - Spring','PHYS 2210');</v>
+      </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33">
         <v>2220</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
+        <v>140</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="G33" t="s">
         <v>75</v>
       </c>
-      <c r="I33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19">
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75">
+      <c r="A34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('PHYS',2225,'Physics for Scientists and Engineers II Laboratory','PHYS 2225 is the laboratory experience to accompany PHYS 2220. Students will learn techniques of measurement and data analysis and to communicate scientific results effectively in writing. Students will get hands-on experience with the concepts taught in the lecture section.','Yr2 - Spring','PHYS 2210');</v>
+      </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34">
         <v>2225</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
+        <v>142</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="G34" t="s">
         <v>75</v>
       </c>
+      <c r="H34" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="I34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="1:19">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3250,'Survey of Languages','This course will be divided into modules each covering a family of programming languages. In each module, the students will be introduced to a family of languages. We will discuss the use cases and thought patterns that the languages address. Additionally, for each module the students will be expected to learn to develop and debug in a representative language from the family being studied and complete a project using it. This course will cover the following modules: Functional Programming Haskell Interpreted Languages / Scripting Python Declarative Languages Prolog Big data Hadoop/Pig Latin Microsoft .Net C# In addition to the above modules the students will be expected to complete a final project and presentation which will consist of learning a language of their choice, completing a project in that language, and giving a short presentation to the class.','Yr3 - Fall','');</v>
+      </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35">
         <v>3250</v>
       </c>
       <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" t="s">
         <v>146</v>
-      </c>
-      <c r="E35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" t="s">
-        <v>148</v>
       </c>
       <c r="G35" t="s">
         <v>41</v>
@@ -2364,30 +2683,34 @@
         <v>66</v>
       </c>
       <c r="J35" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" t="s">
+        <v>148</v>
+      </c>
+      <c r="L35" t="s">
         <v>149</v>
       </c>
-      <c r="K35" t="s">
-        <v>150</v>
-      </c>
-      <c r="L35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="2:19">
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3410,'Human Factors in Software Design','SE 3410 introduces the principles of user interface development, focusing on the following areas: • Design: We will look at how to design good user interfaces, covering important design principles (learnability, visibility, error prevention, efficiency, and graphic design) and the human capabilities that motivate them (including perception, motor skills, color vision, attention, and human error). • Implementation: We will see techniques for building user interfaces, including lowfidelity prototypes, Wizard of Oz, and other prototyping tools; input models, output models, model-view-controller, layout, constraints, and toolkits. • Evaluation: We will learn techniques for evaluating and measuring interface usability, including heuristic evaluation, predictive evaluation, and user testing. • Research: We will learn how to conduct empirical research involving novel user interfaces.','Yr3 - Fall','');</v>
+      </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36">
         <v>3410</v>
       </c>
       <c r="D36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
         <v>152</v>
-      </c>
-      <c r="E36" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" t="s">
-        <v>154</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -2396,51 +2719,55 @@
         <v>72</v>
       </c>
       <c r="J36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K36" t="s">
+        <v>154</v>
+      </c>
+      <c r="L36" t="s">
         <v>155</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>156</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>157</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
         <v>158</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>159</v>
       </c>
-      <c r="O36" t="s">
+      <c r="Q36" t="s">
         <v>160</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>161</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="S36" t="s">
         <v>162</v>
       </c>
-      <c r="R36" t="s">
-        <v>163</v>
-      </c>
-      <c r="S36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19">
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3450,'Principles and Patterns of Software Design','The discipline of Software Engineering Design will be presented by covering the following topics: • Software Design processes • Software product design • Product design analysis • Software Engineering Design • Engineering Design • Architectural Design • Object Oriented Design • State Based Design • Patterns in Software Design','Yr3 - Spring','');</v>
+      </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>3450</v>
       </c>
       <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
         <v>165</v>
-      </c>
-      <c r="E37" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" t="s">
-        <v>167</v>
       </c>
       <c r="G37" t="s">
         <v>57</v>
@@ -2449,30 +2776,34 @@
         <v>72</v>
       </c>
       <c r="J37" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" t="s">
         <v>168</v>
       </c>
-      <c r="K37" t="s">
-        <v>169</v>
-      </c>
-      <c r="L37" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19">
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3520,'Database Systems','The following topics will be covered in this course: • Foundations • Design Theory and Constraints • Transactions • Introduction to Database Systems • Specialized and New Data Processing Systems','Yr3 - Fall','');</v>
+      </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38">
         <v>3520</v>
       </c>
       <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" t="s">
         <v>171</v>
-      </c>
-      <c r="E38" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" t="s">
-        <v>173</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -2481,83 +2812,91 @@
         <v>66</v>
       </c>
       <c r="J38" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" t="s">
         <v>174</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>175</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>176</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>177</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>178</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>179</v>
       </c>
-      <c r="P38" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19">
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3620,'Distributed Application Development','Learn and experiment with Amazon Web Services (AWS): • console management • host a static website • build a web application • deploy a web application Understand distributed system components: • distributed system characteristics • system models • networking / internetworking • IPC / RPC • distributed objects • web services • peer to peer • security • distributed file systems • name services • time • transactions and concurrency control • replication','Yr3 - Spring','');</v>
+      </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39">
         <v>3620</v>
       </c>
       <c r="D39" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" t="s">
         <v>182</v>
-      </c>
-      <c r="E39" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" t="s">
-        <v>184</v>
       </c>
       <c r="G39" t="s">
         <v>57</v>
       </c>
       <c r="I39" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39" t="s">
         <v>185</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>186</v>
       </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>187</v>
       </c>
-      <c r="L39" t="s">
-        <v>188</v>
-      </c>
-      <c r="M39" t="s">
-        <v>189</v>
-      </c>
-      <c r="N39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19">
+      <c r="N39" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',3630,'Mobile Application Development','The following topics will be covered in this course: • Android App Development Tools • Creating and Debugging User Interfaces • User Interace Layouts • Activities and Navigation • Listviews • Input Controls • Multimedia: Android Media Player / Movies and Music • Geolocation: Mapping and location-based services • App Publishing / Content providers • Testing Strategies for Mobile Applications','Yr3 - Spring','');</v>
+      </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40">
         <v>3630</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G40" t="s">
         <v>57</v>
@@ -2566,264 +2905,344 @@
         <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4120,'Management of Software Projects','This course covers the following topics: * Life cycle models * Requirements elicitation * Configuration control * Environments * Quality assurance','Yr4 - Fall','');</v>
+      </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41">
         <v>4120</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
         <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J41" t="s">
+        <v>196</v>
+      </c>
+      <c r="K41" t="s">
+        <v>197</v>
+      </c>
+      <c r="L41" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" t="s">
         <v>199</v>
       </c>
-      <c r="K41" t="s">
+      <c r="N41" t="s">
         <v>200</v>
       </c>
-      <c r="L41" t="s">
+      <c r="O41" t="s">
         <v>201</v>
       </c>
-      <c r="M41" t="s">
-        <v>202</v>
-      </c>
-      <c r="N41" t="s">
-        <v>203</v>
-      </c>
-      <c r="O41" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19">
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4140,'Social and Ethical Issues in Computing','This course will cover the following modules:
+- History of the rapid rise in computer and networking technology.
+- Ethics including an introduction to the philosophical bases.
+- Networking and the Internet including Freedom of expression, Censorship, Spam, and
+internet addiction.
+- Intellectual Property including copyright, fair use, patents, open-source, and licencing.
+- Privacy including the ownership of information, government surveillance, data mining
+and identify theft.
+- Computer and Network Security including Viruses, Hackers, and Denial-of-service
+attacks.
+- Computer Reliability including the cost and responsibility of errors, software
+warranties, and simulations.
+- Professional Ethics including ACM and IEEE codes of conduct.','Yr4 - Spring','');</v>
+      </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42">
         <v>4140</v>
       </c>
       <c r="D42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G42" t="s">
         <v>22</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>206</v>
+      </c>
+      <c r="L42" t="s">
+        <v>207</v>
+      </c>
+      <c r="M42" t="s">
         <v>208</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>209</v>
       </c>
-      <c r="L42" t="s">
+      <c r="O42" t="s">
         <v>210</v>
       </c>
-      <c r="M42" t="s">
-        <v>211</v>
-      </c>
-      <c r="N42" t="s">
-        <v>212</v>
-      </c>
-      <c r="O42" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" ht="409.5">
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4220,'Graphical User Interfaces','This course will cover the following modules:
+GUI Design and usability: Basic UI/UX considerations including: Discoverability, Error prevention, visibility, efficiency, perception, and navigation.
+Interaction between front and backend code: Common methods allowing interaction between GUI elements and the backend code of an application. These will include events, bindings, and MVC patterns.
+Layout Tools: Tools and patterns for laying out UI elements on the screen, including grids, canvas, panels, and wrapper elements.
+Input: Buttons, forms, mouse events, keyboard events, drag and drop events, and use of the clipboard.
+Styles and Themes: Reusable components for adjusting the visual aspects of the interface.
+Resources and localization: Methods for creating international applications including localization (currencies, date formats, etc.) and languages.','Yr4 - Fall','');</v>
+      </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43">
         <v>4220</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>256</v>
+        <v>212</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="G43" t="s">
         <v>94</v>
       </c>
       <c r="I43" t="s">
+        <v>213</v>
+      </c>
+      <c r="J43" t="s">
+        <v>214</v>
+      </c>
+      <c r="K43" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" t="s">
         <v>216</v>
       </c>
-      <c r="J43" t="s">
-        <v>217</v>
-      </c>
-      <c r="K43" t="s">
-        <v>218</v>
-      </c>
-      <c r="L43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19">
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4230,'Advanced Algorithms','Algorithmic techniques will include divide-and-conquer, dynamic programming, greedy approaches, and graph algorithms as well as a selection of current algorithm topics of interest (e.g. learning algorithms). Analysis techniques will include the Master theorem, big-O/theta notation, and proofs by construction, contradiction and induction. Students will also practice implementing algorithms.','Yr4 - Spring','');</v>
+      </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44">
         <v>4230</v>
       </c>
       <c r="D44" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E44" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G44" t="s">
         <v>22</v>
       </c>
       <c r="I44" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" t="s">
+        <v>221</v>
+      </c>
+      <c r="K44" t="s">
+        <v>222</v>
+      </c>
+      <c r="L44" t="s">
         <v>223</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
         <v>224</v>
       </c>
-      <c r="K44" t="s">
-        <v>225</v>
-      </c>
-      <c r="L44" t="s">
-        <v>226</v>
-      </c>
-      <c r="M44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19">
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4320,'Personal Software Practices','The course will cover the following topics:
+- The value of following defined processes.
+- Data collection and analysis for continuous improvement of the software development
+life cycle.
+- Estimation and planning techniques of software projects.
+- Quality management and design principles.','Yr4 - Fall','');</v>
+      </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45">
         <v>4320</v>
       </c>
       <c r="D45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F45" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G45" t="s">
         <v>94</v>
       </c>
       <c r="I45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J45" t="s">
+        <v>228</v>
+      </c>
+      <c r="K45" t="s">
+        <v>229</v>
+      </c>
+      <c r="L45" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" t="s">
         <v>231</v>
       </c>
-      <c r="K45" t="s">
-        <v>232</v>
-      </c>
-      <c r="L45" t="s">
-        <v>233</v>
-      </c>
-      <c r="M45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" ht="16.149999999999999" customHeight="1">
+    </row>
+    <row r="46" spans="1:19" ht="16.149999999999999" customHeight="1">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4340,'Secure Coding Practices','This course will cover the following modules:
+• Web Application Security &amp; Practices including SQL injection, cross-site scripting, cross-site request forgery, cookies and hidden form fields.
+• Implementation Security &amp; Practices including buffer overruns, string formatting issues, integer overflows, exceptions, command injection, information leakage, race conditions, principle of least privilege.
+• Cryptographic Security &amp; Practices including weak passwords, weak cryptography, incorrect cryptography.
+• Networking Security &amp; Practices including network security overview, secure network transmission, name resolution.
+• Vulnerability &amp; risk mitigation, vulnerability assessments, &amp; QA testing.','Yr4 - Spring','');</v>
+      </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46">
         <v>4340</v>
       </c>
       <c r="D46" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
         <v>22</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J46" t="s">
+        <v>234</v>
+      </c>
+      <c r="K46" t="s">
+        <v>235</v>
+      </c>
+      <c r="L46" t="s">
+        <v>236</v>
+      </c>
+      <c r="M46" t="s">
         <v>237</v>
       </c>
-      <c r="K46" t="s">
+      <c r="N46" t="s">
         <v>238</v>
       </c>
-      <c r="L46" t="s">
-        <v>239</v>
-      </c>
-      <c r="M46" t="s">
-        <v>240</v>
-      </c>
-      <c r="N46" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19">
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4400,'Software Engineering Practicum I','This course will consist of a practical software engineering capstone experience. Content covered through the experience will be dependent upon the project assigned to each student. It is expected that each experience will be unique as provided for by a professional sponsor or assigned by the instructor. However, key principles taught throughout the Software Engineering curriculum will be applied to each setting.','Yr4 - Fall','');</v>
+      </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47">
         <v>4400</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F47" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G47" t="s">
         <v>94</v>
       </c>
       <c r="I47" t="s">
+        <v>242</v>
+      </c>
+      <c r="J47" t="s">
+        <v>243</v>
+      </c>
+      <c r="K47" t="s">
+        <v>244</v>
+      </c>
+      <c r="L47" t="s">
         <v>245</v>
       </c>
-      <c r="J47" t="s">
-        <v>246</v>
-      </c>
-      <c r="K47" t="s">
-        <v>247</v>
-      </c>
-      <c r="L47" t="s">
-        <v>248</v>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into course (prefix,num,title,summary,semester,nonprogramprereq) values ('SE',4450,'Software Engineering Practicum II','This course will consist of a practical software engineering capstone experience. Content covered through the experience will be dependent upon the project assigned to each student. It is expected that each experience will be unique as provided for by a professional sponsor or assigned by the instructor. However, key principles taught throughout the Software Engineering curriculum will be applied to each setting.','Yr4 - Spring','');</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48">
+        <v>4450</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2837,15 +3256,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
